--- a/tables/peel_tables_fish.xlsx
+++ b/tables/peel_tables_fish.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/Matt Hipsey/PeelBook/deployed/peel-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBED6D7-BD54-A840-B310-45226CD89809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C975F4-CDAA-A549-AC4F-5E63FD907F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="8400" windowWidth="25640" windowHeight="14440" activeTab="1" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
+    <workbookView xWindow="13980" yWindow="8400" windowWidth="25640" windowHeight="14440" activeTab="2" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="CH7_1" sheetId="1" r:id="rId1"/>
     <sheet name="fishdata" sheetId="5" r:id="rId2"/>
+    <sheet name="fishmetrics" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="147">
   <si>
     <t>Table</t>
   </si>
@@ -436,13 +437,253 @@
   </si>
   <si>
     <t>*Basins*: not sampled; *Rivers*: LM, UM.  *Note:  Limited sampling of SR in one season*</t>
+  </si>
+  <si>
+    <t>Shallow water FCI metrics</t>
+  </si>
+  <si>
+    <t>Deeper water FCI metrics</t>
+  </si>
+  <si>
+    <t>Number of species (−)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Proportion of trophic specialists </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (−)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shannon-Weiner diversity </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (−)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number of trophic specialist species </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (−)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number of trophic generalist species </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Proportion of detritivores </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Proportion of benthic-associated individuals </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (−)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number of benthic species </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (−)</t>
+    </r>
+  </si>
+  <si>
+    <t>Proportion of estuarine spawning individuals (−)</t>
+  </si>
+  <si>
+    <t>Number of estuarine spawning species (−)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Proportion of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pseudogobius olorum </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total number of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pseudogobius olorum </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (+)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -478,6 +719,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -511,7 +775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -547,11 +811,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -630,6 +914,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1436,7 +1729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A23A5-CC22-BC4B-9A2C-8B4A274BF23B}">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1634,4 +1927,111 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69C9B4F-F559-4749-BDA9-6FD2DF625AA3}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="41.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:3" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="2:3" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables/peel_tables_fish.xlsx
+++ b/tables/peel_tables_fish.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/Matt Hipsey/PeelBook/deployed/peel-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C975F4-CDAA-A549-AC4F-5E63FD907F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F337654D-BE65-8B4B-AABB-FE285FD77BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="8400" windowWidth="25640" windowHeight="14440" activeTab="2" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
+    <workbookView xWindow="9660" yWindow="1460" windowWidth="26520" windowHeight="20040" activeTab="3" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="CH7_1" sheetId="1" r:id="rId1"/>
     <sheet name="fishdata" sheetId="5" r:id="rId2"/>
     <sheet name="fishmetrics" sheetId="6" r:id="rId3"/>
+    <sheet name="fishthresh" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="165">
   <si>
     <t>Table</t>
   </si>
@@ -448,8 +449,23 @@
     <t>Number of species (−)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Proportion of trophic specialists </t>
+    <t>Proportion of estuarine spawning individuals (−)</t>
+  </si>
+  <si>
+    <t>Number of estuarine spawning species (−)</t>
+  </si>
+  <si>
+    <r>
+      <t>Total number of *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pseudogobius olorum* ^</t>
     </r>
     <r>
       <rPr>
@@ -458,7 +474,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>b</t>
+      <t>f^</t>
     </r>
     <r>
       <rPr>
@@ -466,12 +482,74 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> (+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Proportion of *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pseudogobius olorum* ^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>f^</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Number of benthic species ^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> (−)</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Shannon-Weiner diversity </t>
+      <t>Proportion of benthic-associated individuals ^</t>
     </r>
     <r>
       <rPr>
@@ -480,7 +558,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>a</t>
+      <t>e^</t>
     </r>
     <r>
       <rPr>
@@ -493,7 +571,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Number of trophic specialist species </t>
+      <t>Proportion of detritivores ^</t>
     </r>
     <r>
       <rPr>
@@ -502,7 +580,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>b</t>
+      <t>d^</t>
     </r>
     <r>
       <rPr>
@@ -510,12 +588,56 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> (+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Number of trophic generalist species ^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>c^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Number of trophic specialist species ^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> (−)</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Number of trophic generalist species </t>
+      <t>Proportion of trophic specialists ^</t>
     </r>
     <r>
       <rPr>
@@ -524,7 +646,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>c</t>
+      <t>b^</t>
     </r>
     <r>
       <rPr>
@@ -532,12 +654,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (+)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Proportion of detritivores </t>
+      <t xml:space="preserve"> (−)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Shannon-Weiner diversity ^</t>
     </r>
     <r>
       <rPr>
@@ -546,7 +668,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>d</t>
+      <t>a^</t>
     </r>
     <r>
       <rPr>
@@ -554,136 +676,232 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (+)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Proportion of benthic-associated individuals </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> (−)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Number of benthic species </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (−)</t>
-    </r>
-  </si>
-  <si>
-    <t>Proportion of estuarine spawning individuals (−)</t>
-  </si>
-  <si>
-    <t>Number of estuarine spawning species (−)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Proportion of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pseudogobius olorum </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(+)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Total number of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pseudogobius olorum </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (+)</t>
-    </r>
+    <t>Condition grade</t>
+  </si>
+  <si>
+    <t>Shallow water FCI scores</t>
+  </si>
+  <si>
+    <t>Deeper water FCI scores</t>
+  </si>
+  <si>
+    <t>&gt;77.67</t>
+  </si>
+  <si>
+    <t>&gt;71.00</t>
+  </si>
+  <si>
+    <r>
+      <t>66.33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>77.67</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>54.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>71.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>58.59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>66.33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>41.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>54.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>46.50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>58.59</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>41.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>**A**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    (excellent)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>**B**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    (good)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>**C**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    (fair)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>**D**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    (poor)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>**E**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    (very poor)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> less than 46.50</t>
+  </si>
+  <si>
+    <t>less than 10.40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -742,8 +960,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,6 +1013,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -923,6 +1189,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1933,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69C9B4F-F559-4749-BDA9-6FD2DF625AA3}">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1961,34 +2245,34 @@
     </row>
     <row r="5" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="34" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -2001,35 +2285,119 @@
     </row>
     <row r="10" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C11" s="34"/>
     </row>
     <row r="12" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="34" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C12" s="34"/>
     </row>
     <row r="13" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="34" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C13" s="34"/>
     </row>
     <row r="14" spans="2:3" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="35" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C14" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FC01B3-2D99-E547-A635-66CDD98F73B0}">
+  <dimension ref="B3:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="41.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="42" x14ac:dyDescent="0.2">
+      <c r="B3" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables/peel_tables_fish.xlsx
+++ b/tables/peel_tables_fish.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/Matt Hipsey/PeelBook/deployed/peel-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F337654D-BE65-8B4B-AABB-FE285FD77BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B632F5-124D-1744-AE14-F9B016F61B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="1460" windowWidth="26520" windowHeight="20040" activeTab="3" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
+    <workbookView xWindow="9660" yWindow="1460" windowWidth="26520" windowHeight="20040" activeTab="5" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="CH7_1" sheetId="1" r:id="rId1"/>
     <sheet name="fishdata" sheetId="5" r:id="rId2"/>
     <sheet name="fishmetrics" sheetId="6" r:id="rId3"/>
     <sheet name="fishthresh" sheetId="7" r:id="rId4"/>
+    <sheet name="fishmonit" sheetId="8" r:id="rId5"/>
+    <sheet name="fishmonit2" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_ftn1" localSheetId="4">fishmonit!$B$11</definedName>
+    <definedName name="_ftn2" localSheetId="4">fishmonit!$B$16</definedName>
+    <definedName name="_ftnref1" localSheetId="4">fishmonit!$C$5</definedName>
+    <definedName name="_ftnref2" localSheetId="4">fishmonit!$B$10</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="212">
   <si>
     <t>Table</t>
   </si>
@@ -895,13 +903,286 @@
   </si>
   <si>
     <t>less than 10.40</t>
+  </si>
+  <si>
+    <t>SH, NH, WP, EP, SR, LM, UM, MC[1]</t>
+  </si>
+  <si>
+    <r>
+      <t>SH, NH, WP, EP, SR, LM, UM, MC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Sampling attribute</t>
+  </si>
+  <si>
+    <t>***Option 1***: Optimal spatial and temporal replication</t>
+  </si>
+  <si>
+    <t>***Option 2*** : Reduced spatial replication</t>
+  </si>
+  <si>
+    <t>***Option 3*** : Reduced temporal replication</t>
+  </si>
+  <si>
+    <t>**Seasons sampled**</t>
+  </si>
+  <si>
+    <t>**Estuary regions sampled**</t>
+  </si>
+  <si>
+    <t>**Numbers of sampling sites per estuary region**</t>
+  </si>
+  <si>
+    <t>**Sampling methods**</t>
+  </si>
+  <si>
+    <t>21.5 m seine net at shallow sites; Multi-panel gill nets at deeper sites</t>
+  </si>
+  <si>
+    <t>6 x shallow sites; 6 x deeper sites</t>
+  </si>
+  <si>
+    <t>4 x shallow sites; 3 x deeper sites</t>
+  </si>
+  <si>
+    <t>Summer and Autumn, annually</t>
+  </si>
+  <si>
+    <t>Late summer, annually</t>
+  </si>
+  <si>
+    <t>16 days per season</t>
+  </si>
+  <si>
+    <t>32 days per year</t>
+  </si>
+  <si>
+    <t>8 days per season</t>
+  </si>
+  <si>
+    <t>16 days per year</t>
+  </si>
+  <si>
+    <t>Indicative cost per year for monitoring and reporting[2]</t>
+  </si>
+  <si>
+    <t>~$100,000 per annum</t>
+  </si>
+  <si>
+    <t>~$50,000 per annum</t>
+  </si>
+  <si>
+    <t>Advantages</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Statistically robust determination of changes in estuary condition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quantification of any seasonal changes in estuary condition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reduced impact on fish communities.</t>
+    </r>
+  </si>
+  <si>
+    <t>Disadvantages</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lower statistical power to quantify significance of changes in estuary condition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lacks context of any seasonal changes in estuary condition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Labour intensive; ·       Increased potential impacts of sampling on fish populations.</t>
+    </r>
+  </si>
+  <si>
+    <t>Indicative duration of sampling each year[1]</t>
+  </si>
+  <si>
+    <t>Indicative duration of sampling in each season [1]</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t>Rationale/benefit</t>
+  </si>
+  <si>
+    <t>Consequence/limitation</t>
+  </si>
+  <si>
+    <t>- ‘Option 4’: combines reduced spatial and temporal intensities as outlined for options 2 and 3.</t>
+  </si>
+  <si>
+    <t>- Minimises sampling costs of the monitoring.</t>
+  </si>
+  <si>
+    <t>- Conduct monitoring and reporting only every two years.</t>
+  </si>
+  <si>
+    <t>- Halving of financial costs associated with collecting and processing samples.</t>
+  </si>
+  <si>
+    <t>- Impaired ability to detect and interpret trends in estuary condition over time.</t>
+  </si>
+  <si>
+    <t>- Restrict monitoring and reporting of estuary condition to shallow waters only.</t>
+  </si>
+  <si>
+    <t>- Considerable savings in time and financial costs (entire estuary could be sampled in ~3-4 days).</t>
+  </si>
+  <si>
+    <t>- Incomplete assessment of estuarine condition.</t>
+  </si>
+  <si>
+    <t>- Restrict monitoring and reporting of estuary condition to the riverine regions only (i.e. Serpentine, Lower Murray, Upper Murray).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Lower statistical power to quantify the significance of any changes in estuary condition. - Lacks context of any seasonal changes in estuary condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Most of the severe ecological problems are evident in the riverine regions (algal blooms, fish kills etc). - Considerable savings in time and financial costs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Inability to correctly interpret changes in shallow index scores, given the resulting lack of knowledge of adjacent, deeper waters. &lt;br&gt;- Incomplete assessment of estuarine condition.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -984,6 +1265,54 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF695D46"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF695D46"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF695D46"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF695D46"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF695D46"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF695D46"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1041,7 +1370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1097,11 +1426,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1208,8 +1547,36 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2324,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FC01B3-2D99-E547-A635-66CDD98F73B0}">
   <dimension ref="B3:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2402,4 +2769,263 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4574B9ED-9E28-874C-A7EA-A82A9173F761}">
+  <dimension ref="B3:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B5" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="B6" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B9" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="B11" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="B12" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="48"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="48"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" location="_ftn1" display="applewebdata://D5A36561-0819-4840-AEB7-2C28D885AA62/ - _ftn1" xr:uid="{7256A961-F408-9748-B490-008DD9137D28}"/>
+    <hyperlink ref="B8" r:id="rId2" location="_ftn1" display="applewebdata://940CA487-81FA-4EF0-8665-EA6D6C408891/ - _ftn1" xr:uid="{FFD8019C-1B7B-2E4D-A285-6568ABCA9213}"/>
+    <hyperlink ref="B10" r:id="rId3" location="_ftn2" display="applewebdata://940CA487-81FA-4EF0-8665-EA6D6C408891/ - _ftn2" xr:uid="{803BAA71-D7D1-6846-866A-6C3DA0EEEB8C}"/>
+    <hyperlink ref="B9" r:id="rId4" location="_ftn1" display="applewebdata://940CA487-81FA-4EF0-8665-EA6D6C408891/ - _ftn1" xr:uid="{F5615539-DB77-CF47-A216-611428E02766}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C9E47-9A91-4C44-81C1-76D9830D24C1}">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="196" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="154" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables/peel_tables_fish.xlsx
+++ b/tables/peel_tables_fish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/Matt Hipsey/PeelBook/deployed/peel-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B632F5-124D-1744-AE14-F9B016F61B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8841D99-4610-3343-B392-EAA57FE72512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="1460" windowWidth="26520" windowHeight="20040" activeTab="5" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
+    <workbookView xWindow="9660" yWindow="1460" windowWidth="26520" windowHeight="20040" activeTab="3" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="CH7_1" sheetId="1" r:id="rId1"/>
@@ -830,20 +830,6 @@
   </si>
   <si>
     <r>
-      <t>**A**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    (excellent)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>**B**</t>
     </r>
     <r>
@@ -1176,6 +1162,20 @@
   </si>
   <si>
     <t xml:space="preserve"> - Inability to correctly interpret changes in shallow index scores, given the resulting lack of knowledge of adjacent, deeper waters. &lt;br&gt;- Incomplete assessment of estuarine condition.</t>
+  </si>
+  <si>
+    <r>
+      <t>**A**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    (very good)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2691,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FC01B3-2D99-E547-A635-66CDD98F73B0}">
   <dimension ref="B3:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="4" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>150</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="5" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>152</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="6" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>154</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="7" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>156</v>
@@ -2757,13 +2757,13 @@
     </row>
     <row r="8" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="D8" s="28" t="s">
         <v>163</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2786,156 +2786,156 @@
   <sheetData>
     <row r="3" spans="2:5" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="D3" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="E3" s="42" t="s">
         <v>169</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="46" t="s">
         <v>178</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="45" t="s">
-        <v>166</v>
-      </c>
       <c r="E5" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="28" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>177</v>
-      </c>
       <c r="E6" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>175</v>
-      </c>
       <c r="D7" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B9" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="D10" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="45" t="s">
-        <v>186</v>
-      </c>
       <c r="E10" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="42" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>188</v>
-      </c>
       <c r="D11" s="49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="42" x14ac:dyDescent="0.2">
       <c r="B12" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="49" t="s">
         <v>187</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="E13" s="50" t="s">
         <v>192</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -2959,7 +2959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C9E47-9A91-4C44-81C1-76D9830D24C1}">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2972,57 +2972,57 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="D2" s="42" t="s">
         <v>198</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>201</v>
-      </c>
       <c r="D3" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="D4" s="45" t="s">
         <v>203</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="196" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>206</v>
-      </c>
       <c r="D5" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="154" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/tables/peel_tables_fish.xlsx
+++ b/tables/peel_tables_fish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/Matt Hipsey/PeelBook/deployed/peel-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8841D99-4610-3343-B392-EAA57FE72512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E3822D-6C54-9942-994D-4677A6DB3999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="1460" windowWidth="26520" windowHeight="20040" activeTab="3" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
+    <workbookView xWindow="9660" yWindow="1460" windowWidth="26520" windowHeight="20040" activeTab="4" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="CH7_1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="214">
   <si>
     <t>Table</t>
   </si>
@@ -891,85 +891,117 @@
     <t>less than 10.40</t>
   </si>
   <si>
-    <t>SH, NH, WP, EP, SR, LM, UM, MC[1]</t>
-  </si>
-  <si>
-    <r>
-      <t>SH, NH, WP, EP, SR, LM, UM, MC</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF695D46"/>
+    <t>Sampling attribute</t>
+  </si>
+  <si>
+    <t>***Option 1***: Optimal spatial and temporal replication</t>
+  </si>
+  <si>
+    <t>***Option 2*** : Reduced spatial replication</t>
+  </si>
+  <si>
+    <t>***Option 3*** : Reduced temporal replication</t>
+  </si>
+  <si>
+    <t>**Seasons sampled**</t>
+  </si>
+  <si>
+    <t>**Estuary regions sampled**</t>
+  </si>
+  <si>
+    <t>**Numbers of sampling sites per estuary region**</t>
+  </si>
+  <si>
+    <t>**Sampling methods**</t>
+  </si>
+  <si>
+    <t>Summer and Autumn, annually</t>
+  </si>
+  <si>
+    <t>Late summer, annually</t>
+  </si>
+  <si>
+    <t>16 days per season</t>
+  </si>
+  <si>
+    <t>32 days per year</t>
+  </si>
+  <si>
+    <t>8 days per season</t>
+  </si>
+  <si>
+    <t>16 days per year</t>
+  </si>
+  <si>
+    <t>~$100,000 per annum</t>
+  </si>
+  <si>
+    <t>~$50,000 per annum</t>
+  </si>
+  <si>
+    <t>Advantages</t>
+  </si>
+  <si>
+    <t>Disadvantages</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t>Rationale/benefit</t>
+  </si>
+  <si>
+    <t>Consequence/limitation</t>
+  </si>
+  <si>
+    <t>- ‘Option 4’: combines reduced spatial and temporal intensities as outlined for options 2 and 3.</t>
+  </si>
+  <si>
+    <t>- Minimises sampling costs of the monitoring.</t>
+  </si>
+  <si>
+    <t>- Conduct monitoring and reporting only every two years.</t>
+  </si>
+  <si>
+    <t>- Halving of financial costs associated with collecting and processing samples.</t>
+  </si>
+  <si>
+    <t>- Impaired ability to detect and interpret trends in estuary condition over time.</t>
+  </si>
+  <si>
+    <t>- Restrict monitoring and reporting of estuary condition to shallow waters only.</t>
+  </si>
+  <si>
+    <t>- Considerable savings in time and financial costs (entire estuary could be sampled in ~3-4 days).</t>
+  </si>
+  <si>
+    <t>- Incomplete assessment of estuarine condition.</t>
+  </si>
+  <si>
+    <t>- Restrict monitoring and reporting of estuary condition to the riverine regions only (i.e. Serpentine, Lower Murray, Upper Murray).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Lower statistical power to quantify the significance of any changes in estuary condition. - Lacks context of any seasonal changes in estuary condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Most of the severe ecological problems are evident in the riverine regions (algal blooms, fish kills etc). - Considerable savings in time and financial costs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Inability to correctly interpret changes in shallow index scores, given the resulting lack of knowledge of adjacent, deeper waters. &lt;br&gt;- Incomplete assessment of estuarine condition.</t>
+  </si>
+  <si>
+    <r>
+      <t>**A**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Sampling attribute</t>
-  </si>
-  <si>
-    <t>***Option 1***: Optimal spatial and temporal replication</t>
-  </si>
-  <si>
-    <t>***Option 2*** : Reduced spatial replication</t>
-  </si>
-  <si>
-    <t>***Option 3*** : Reduced temporal replication</t>
-  </si>
-  <si>
-    <t>**Seasons sampled**</t>
-  </si>
-  <si>
-    <t>**Estuary regions sampled**</t>
-  </si>
-  <si>
-    <t>**Numbers of sampling sites per estuary region**</t>
-  </si>
-  <si>
-    <t>**Sampling methods**</t>
-  </si>
-  <si>
-    <t>21.5 m seine net at shallow sites; Multi-panel gill nets at deeper sites</t>
-  </si>
-  <si>
-    <t>6 x shallow sites; 6 x deeper sites</t>
-  </si>
-  <si>
-    <t>4 x shallow sites; 3 x deeper sites</t>
-  </si>
-  <si>
-    <t>Summer and Autumn, annually</t>
-  </si>
-  <si>
-    <t>Late summer, annually</t>
-  </si>
-  <si>
-    <t>16 days per season</t>
-  </si>
-  <si>
-    <t>32 days per year</t>
-  </si>
-  <si>
-    <t>8 days per season</t>
-  </si>
-  <si>
-    <t>16 days per year</t>
-  </si>
-  <si>
-    <t>Indicative cost per year for monitoring and reporting[2]</t>
-  </si>
-  <si>
-    <t>~$100,000 per annum</t>
-  </si>
-  <si>
-    <t>~$50,000 per annum</t>
-  </si>
-  <si>
-    <t>Advantages</t>
+      <t xml:space="preserve">    (very good)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -979,8 +1011,9 @@
       <rPr>
         <sz val="7"/>
         <color rgb="FF695D46"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
@@ -988,8 +1021,9 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF695D46"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Statistically robust determination of changes in estuary condition.</t>
     </r>
@@ -1002,8 +1036,9 @@
       <rPr>
         <sz val="7"/>
         <color rgb="FF695D46"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
@@ -1011,10 +1046,11 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF695D46"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Quantification of any seasonal changes in estuary condition.</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reduced impact on fish communities.</t>
     </r>
   </si>
   <si>
@@ -1025,8 +1061,9 @@
       <rPr>
         <sz val="7"/>
         <color rgb="FF695D46"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
@@ -1034,14 +1071,12 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF695D46"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Reduced impact on fish communities.</t>
-    </r>
-  </si>
-  <si>
-    <t>Disadvantages</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quantification of any seasonal changes in estuary condition.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1051,8 +1086,9 @@
       <rPr>
         <sz val="7"/>
         <color rgb="FF695D46"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
@@ -1060,8 +1096,9 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF695D46"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Lower statistical power to quantify significance of changes in estuary condition.</t>
     </r>
@@ -1074,8 +1111,9 @@
       <rPr>
         <sz val="7"/>
         <color rgb="FF695D46"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
@@ -1083,11 +1121,43 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF695D46"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Lacks context of any seasonal changes in estuary condition.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>SH, NH, WP, EP, SR, LM, UM, MC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ^b^</t>
+    </r>
+  </si>
+  <si>
+    <t>SH, NH, WP, EP, SR, LM, UM, MC ^b^</t>
+  </si>
+  <si>
+    <t>SH, NH, WP, EP, SR, LM, UM, MC ^a^</t>
+  </si>
+  <si>
+    <t>Indicative duration of sampling in each season ^a^</t>
+  </si>
+  <si>
+    <t>Indicative duration of sampling each year ^a^</t>
+  </si>
+  <si>
+    <t>Indicative cost per year for monitoring and reporting ^c^</t>
   </si>
   <si>
     <r>
@@ -1097,8 +1167,9 @@
       <rPr>
         <sz val="7"/>
         <color rgb="FF695D46"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
@@ -1106,83 +1177,31 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF695D46"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Labour intensive; ·       Increased potential impacts of sampling on fish populations.</t>
-    </r>
-  </si>
-  <si>
-    <t>Indicative duration of sampling each year[1]</t>
-  </si>
-  <si>
-    <t>Indicative duration of sampling in each season [1]</t>
-  </si>
-  <si>
-    <t>Modification</t>
-  </si>
-  <si>
-    <t>Rationale/benefit</t>
-  </si>
-  <si>
-    <t>Consequence/limitation</t>
-  </si>
-  <si>
-    <t>- ‘Option 4’: combines reduced spatial and temporal intensities as outlined for options 2 and 3.</t>
-  </si>
-  <si>
-    <t>- Minimises sampling costs of the monitoring.</t>
-  </si>
-  <si>
-    <t>- Conduct monitoring and reporting only every two years.</t>
-  </si>
-  <si>
-    <t>- Halving of financial costs associated with collecting and processing samples.</t>
-  </si>
-  <si>
-    <t>- Impaired ability to detect and interpret trends in estuary condition over time.</t>
-  </si>
-  <si>
-    <t>- Restrict monitoring and reporting of estuary condition to shallow waters only.</t>
-  </si>
-  <si>
-    <t>- Considerable savings in time and financial costs (entire estuary could be sampled in ~3-4 days).</t>
-  </si>
-  <si>
-    <t>- Incomplete assessment of estuarine condition.</t>
-  </si>
-  <si>
-    <t>- Restrict monitoring and reporting of estuary condition to the riverine regions only (i.e. Serpentine, Lower Murray, Upper Murray).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Lower statistical power to quantify the significance of any changes in estuary condition. - Lacks context of any seasonal changes in estuary condition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Most of the severe ecological problems are evident in the riverine regions (algal blooms, fish kills etc). - Considerable savings in time and financial costs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Inability to correctly interpret changes in shallow index scores, given the resulting lack of knowledge of adjacent, deeper waters. &lt;br&gt;- Incomplete assessment of estuarine condition.</t>
-  </si>
-  <si>
-    <r>
-      <t>**A**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    (very good)</t>
-    </r>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Labour intensive &lt;br&gt;·       Increased potential impacts of sampling on fish populations</t>
+    </r>
+  </si>
+  <si>
+    <t>6 x shallow sites &lt;br&gt;6 x deeper sites</t>
+  </si>
+  <si>
+    <t>4 x shallow sites &lt;br&gt; 3 x deeper sites</t>
+  </si>
+  <si>
+    <t>6 x shallow sites&lt;br&gt; 6 x deeper sites</t>
+  </si>
+  <si>
+    <t>21.5 m seine net at shallow sites&lt;br&gt; Multi-panel gill nets at deeper sites</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1274,20 +1293,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF695D46"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF695D46"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="10"/>
       <color rgb="FF695D46"/>
       <name val="Arial"/>
@@ -1302,16 +1307,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF695D46"/>
-      <name val="Symbol"/>
-      <charset val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF695D46"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF695D46"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF695D46"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF695D46"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1438,9 +1470,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1553,26 +1585,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2691,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FC01B3-2D99-E547-A635-66CDD98F73B0}">
   <dimension ref="B3:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2713,7 +2749,7 @@
     </row>
     <row r="4" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>150</v>
@@ -2775,174 +2811,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4574B9ED-9E28-874C-A7EA-A82A9173F761}">
   <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="44"/>
+    <col min="2" max="5" width="25.6640625" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="44"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="E3" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="42" t="s">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="C4" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B5" s="48" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="44" t="s">
+      <c r="C5" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="B6" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C6" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B9" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="E9" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="46" t="s">
+    </row>
+    <row r="10" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="50" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="45" t="s">
+      <c r="D10" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="E10" s="50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="B11" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="B12" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="B13" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B9" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="42" x14ac:dyDescent="0.2">
-      <c r="B11" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="42" x14ac:dyDescent="0.2">
-      <c r="B12" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>193</v>
+      <c r="C13" s="51" t="s">
+        <v>209</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="48"/>
+      <c r="B15" s="52"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="48"/>
+      <c r="B16" s="52"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2972,57 +3010,57 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="196" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="196" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="6" spans="2:4" ht="154" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>206</v>
+      <c r="B6" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/tables/peel_tables_fish.xlsx
+++ b/tables/peel_tables_fish.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/Matt Hipsey/PeelBook/deployed/peel-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E3822D-6C54-9942-994D-4677A6DB3999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E5561-8F1B-CC4D-BFE0-021223030DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="1460" windowWidth="26520" windowHeight="20040" activeTab="4" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
+    <workbookView xWindow="9660" yWindow="1460" windowWidth="26520" windowHeight="20040" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
   </bookViews>
   <sheets>
-    <sheet name="CH7_1" sheetId="1" r:id="rId1"/>
-    <sheet name="fishdata" sheetId="5" r:id="rId2"/>
-    <sheet name="fishmetrics" sheetId="6" r:id="rId3"/>
-    <sheet name="fishthresh" sheetId="7" r:id="rId4"/>
-    <sheet name="fishmonit" sheetId="8" r:id="rId5"/>
-    <sheet name="fishmonit2" sheetId="9" r:id="rId6"/>
+    <sheet name="fishdata" sheetId="5" r:id="rId1"/>
+    <sheet name="fishmetrics" sheetId="6" r:id="rId2"/>
+    <sheet name="fishthresh" sheetId="7" r:id="rId3"/>
+    <sheet name="fishmonit" sheetId="8" r:id="rId4"/>
+    <sheet name="fishmonit2" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="4">fishmonit!$B$11</definedName>
-    <definedName name="_ftn2" localSheetId="4">fishmonit!$B$16</definedName>
-    <definedName name="_ftnref1" localSheetId="4">fishmonit!$C$5</definedName>
-    <definedName name="_ftnref2" localSheetId="4">fishmonit!$B$10</definedName>
+    <definedName name="_ftn1" localSheetId="3">fishmonit!$B$11</definedName>
+    <definedName name="_ftn2" localSheetId="3">fishmonit!$B$16</definedName>
+    <definedName name="_ftnref1" localSheetId="3">fishmonit!$C$5</definedName>
+    <definedName name="_ftnref2" localSheetId="3">fishmonit!$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,303 +46,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="214">
-  <si>
-    <t>Table</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
   <si>
     <t>Group</t>
-  </si>
-  <si>
-    <t>AED name</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Typical Range</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>State variable</t>
-  </si>
-  <si>
-    <t>aed_oxygen</t>
-  </si>
-  <si>
-    <t>OXY_oxy</t>
-  </si>
-  <si>
-    <t>\mathbf{O_2}</t>
-  </si>
-  <si>
-    <t>dissolved oxygen concentration</t>
-  </si>
-  <si>
-    <t>mmol\:O_2/m^3</t>
-  </si>
-  <si>
-    <t>pelagic</t>
-  </si>
-  <si>
-    <t>0 - 500</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Dependent variables</t>
-  </si>
-  <si>
-    <t>SDF_Fsed_oxy</t>
-  </si>
-  <si>
-    <t>\mathbf{F}_{sed}^{oxy}</t>
-  </si>
-  <si>
-    <t>sediment $O_2$ flux</t>
-  </si>
-  <si>
-    <t>mmol \:O_2/m^2/s</t>
-  </si>
-  <si>
-    <t>benthic</t>
-  </si>
-  <si>
-    <t>-300 - 300</t>
-  </si>
-  <si>
-    <t>read and output as /day, but internally used as /s</t>
-  </si>
-  <si>
-    <t>Diagnostics</t>
-  </si>
-  <si>
-    <t>diag_level = 0+</t>
-  </si>
-  <si>
-    <t>OXY_sat</t>
-  </si>
-  <si>
-    <t>\mathbf{O_2^{sat}}</t>
-  </si>
-  <si>
-    <t>oxygen saturation</t>
-  </si>
-  <si>
-    <t>\%</t>
-  </si>
-  <si>
-    <t>0-200</t>
-  </si>
-  <si>
-    <t>diag_level = 2+</t>
-  </si>
-  <si>
-    <t>OXY_sed_oxy</t>
-  </si>
-  <si>
-    <t>$O_2$ exchange across sediment-water interface</t>
-  </si>
-  <si>
-    <t>mmol\: O_2/m^2/d</t>
-  </si>
-  <si>
-    <t>0 - 50</t>
-  </si>
-  <si>
-    <t>OXY_atm_oxy_flux</t>
-  </si>
-  <si>
-    <t>\mathbf{F}_{atm}^{oxy}</t>
-  </si>
-  <si>
-    <t>$O_2$ exchange across atm-water interface</t>
-  </si>
-  <si>
-    <t>mmol \:O_2/m^2/d</t>
-  </si>
-  <si>
-    <t>surface</t>
-  </si>
-  <si>
-    <t>0 - 100</t>
-  </si>
-  <si>
-    <t>diag_level = 9+</t>
-  </si>
-  <si>
-    <t>OXY_atm_oxy_exch3d</t>
-  </si>
-  <si>
-    <t>\mathbf{\check{f}}_{atm}^{oxy}</t>
-  </si>
-  <si>
-    <t>mmol \:O_2/m^3/d</t>
-  </si>
-  <si>
-    <t>0 - 1</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Initialisation</t>
-  </si>
-  <si>
-    <t>oxy_initial</t>
-  </si>
-  <si>
-    <t>O_2|_{t=0}</t>
-  </si>
-  <si>
-    <t>initial $O_2$ concentration</t>
-  </si>
-  <si>
-    <t>mmol\: O_2/m^3</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>0 - 5000</t>
-  </si>
-  <si>
-    <t>can be overwritten by initial condition files</t>
-  </si>
-  <si>
-    <t>oxy_min</t>
-  </si>
-  <si>
-    <t>O_2\rfloor_{min}</t>
-  </si>
-  <si>
-    <t>minimum $O_2$ concentration</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>optional limitier</t>
-  </si>
-  <si>
-    <t>oxy_max</t>
-  </si>
-  <si>
-    <t>O_2\rceil^{max}</t>
-  </si>
-  <si>
-    <t>maximum $O_2$ concentration</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>Sediment exchange</t>
-  </si>
-  <si>
-    <t>Fsed_oxy</t>
-  </si>
-  <si>
-    <t>F_{sed}^{oxy}</t>
-  </si>
-  <si>
-    <t>sediment $O_2$ flux at 20C</t>
-  </si>
-  <si>
-    <t>Ksed_oxy</t>
-  </si>
-  <si>
-    <t>K_{sod}^{O_2}</t>
-  </si>
-  <si>
-    <t>half-saturation oxygen conc. controlling $O_2$ flux</t>
-  </si>
-  <si>
-    <t>20 - 100</t>
-  </si>
-  <si>
-    <t>theta_sed_oxy</t>
-  </si>
-  <si>
-    <t>\theta_{sed}^{oxy}</t>
-  </si>
-  <si>
-    <t>Arrhenius temperature multiplier for sediment $O_2$ flux</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1.0 - 1.2</t>
-  </si>
-  <si>
-    <t>Fsed_oxy_variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>variable name to link to for spatially resolved sediment zones</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>`SDF_Fsed_oxy`</t>
-  </si>
-  <si>
-    <t>optional link to enable  spatially resolved fluxes</t>
-  </si>
-  <si>
-    <t>Atmospheric exchange</t>
-  </si>
-  <si>
-    <t>oxy_piston_model</t>
-  </si>
-  <si>
-    <t>\Theta_{oxy}^{piston}</t>
-  </si>
-  <si>
-    <t>selection of air/water $O_2$ flux velocity method</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>1 - 9</t>
-  </si>
-  <si>
-    <t>see options in the [Gas Transfer](#GAS) section</t>
-  </si>
-  <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>altitude of site above sea level</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>0 - 4000</t>
-  </si>
-  <si>
-    <t>defaults to 0; Eq \@ref(eq:oxy4) used for $H \gt 1$</t>
   </si>
   <si>
     <t>Shallow waters</t>
@@ -1201,7 +906,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1212,15 +917,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1346,7 +1042,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,24 +1052,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,40 +1080,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1470,144 +1120,81 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1924,487 +1511,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DCF1C1-1521-5B4C-A3D9-E154B9D7EC97}">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A23A5-CC22-BC4B-9A2C-8B4A274BF23B}">
+  <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="52.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="F10" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2413,210 +1715,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A23A5-CC22-BC4B-9A2C-8B4A274BF23B}">
-  <dimension ref="A2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="31"/>
-    <col min="3" max="3" width="21.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="42" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69C9B4F-F559-4749-BDA9-6FD2DF625AA3}">
   <dimension ref="B2:C14"/>
   <sheetViews>
@@ -2631,99 +1729,99 @@
   <sheetData>
     <row r="2" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:3" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>134</v>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>135</v>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>146</v>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>144</v>
+      <c r="B6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>143</v>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>142</v>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>141</v>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>136</v>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="34"/>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="34"/>
+      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="34"/>
+      <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="2:3" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="35"/>
+      <c r="B14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FC01B3-2D99-E547-A635-66CDD98F73B0}">
   <dimension ref="B3:D8"/>
   <sheetViews>
@@ -2737,69 +1835,69 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="42" x14ac:dyDescent="0.2">
-      <c r="B3" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>149</v>
+      <c r="B3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>151</v>
+      <c r="B4" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>153</v>
+      <c r="B5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>155</v>
+      <c r="B6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>157</v>
+      <c r="B7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>163</v>
+      <c r="B8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2807,180 +1905,180 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4574B9ED-9E28-874C-A7EA-A82A9173F761}">
   <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="44"/>
-    <col min="2" max="5" width="25.6640625" style="44" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="44"/>
+    <col min="1" max="1" width="10.83203125" style="17"/>
+    <col min="2" max="5" width="25.6640625" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>167</v>
+      <c r="B3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>173</v>
+      <c r="B4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B5" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>204</v>
+      <c r="B5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="B6" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>212</v>
+      <c r="B6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>213</v>
+      <c r="B7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>174</v>
+      <c r="B8" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B9" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>177</v>
+      <c r="B9" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>179</v>
+      <c r="B10" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="B11" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>199</v>
+      <c r="B11" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="B12" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>198</v>
+      <c r="B12" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="B13" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>202</v>
+      <c r="B13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="52"/>
+      <c r="B15" s="25"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="52"/>
+      <c r="B16" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2993,7 +2091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C9E47-9A91-4C44-81C1-76D9830D24C1}">
   <dimension ref="B2:D6"/>
   <sheetViews>
@@ -3009,58 +2107,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>184</v>
+      <c r="B2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>194</v>
+      <c r="B3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>189</v>
+      <c r="B4" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="196" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>196</v>
+      <c r="B5" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="154" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>192</v>
+      <c r="B6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
